--- a/bim_agent/tableConvert.com_B.xlsx
+++ b/bim_agent/tableConvert.com_B.xlsx
@@ -5,16 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/multi_agent/bim_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1888D-0D46-CF46-9A34-52967872A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F2E50-A751-6D44-9E23-5D19CA692EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="760" windowWidth="27160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="760" windowWidth="29540" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$K$1:$K$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="212">
   <si>
     <t>No.</t>
   </si>
@@ -416,256 +419,305 @@
     <t>Floor+pool</t>
   </si>
   <si>
+    <t>Not counted (pool)</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Transfer level, thick</t>
+  </si>
+  <si>
+    <t>Transfer+thick</t>
+  </si>
+  <si>
+    <t>Transfer slab</t>
+  </si>
+  <si>
+    <t>Counted as structural</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Exterior, grade</t>
+  </si>
+  <si>
+    <t>Exterior+grade</t>
+  </si>
+  <si>
+    <t>Not counted (exterior)</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>ROOF</t>
+  </si>
+  <si>
+    <t>Vegetated surface</t>
+  </si>
+  <si>
+    <t>Roof+green</t>
+  </si>
+  <si>
+    <t>Green roof</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Covered walkway</t>
+  </si>
+  <si>
+    <t>Covered+pedestrian</t>
+  </si>
+  <si>
+    <t>Counted if enclosed</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Canopy, no enclosure</t>
+  </si>
+  <si>
+    <t>Canopy+open</t>
+  </si>
+  <si>
+    <t>Canopy deck</t>
+  </si>
+  <si>
+    <t>Not counted (open)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>IfcWall</t>
+  </si>
+  <si>
+    <t>H&gt;6m, independent foundation</t>
+  </si>
+  <si>
+    <t>Super tall+independent</t>
+  </si>
+  <si>
+    <t>To centerline</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>Unit separation</t>
+  </si>
+  <si>
+    <t>Between units</t>
+  </si>
+  <si>
+    <t>is_basement=T, retaining</t>
+  </si>
+  <si>
+    <t>Underground+retaining</t>
+  </si>
+  <si>
+    <t>Not counted</t>
+  </si>
+  <si>
+    <t>is_top_floor=T, low height</t>
+  </si>
+  <si>
+    <t>Roof+low</t>
+  </si>
+  <si>
+    <t>Acoustic requirement</t>
+  </si>
+  <si>
+    <t>Sound performance</t>
+  </si>
+  <si>
+    <t>IfcStair</t>
+  </si>
+  <si>
+    <t>Symmetric layout, shared shaft</t>
+  </si>
+  <si>
+    <t>Symmetric+shared</t>
+  </si>
+  <si>
+    <t>Scissor stair</t>
+  </si>
+  <si>
+    <t>Stair footprint</t>
+  </si>
+  <si>
+    <t>Super tall+narrow+stair</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super tall+narrow+duct</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super tall+narrow+cable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counted (shaft)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refuse room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembly space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counted full</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cold storage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counted as service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mezzanine floor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refuge area</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoke protection+AdjacentToStair</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patio/plaza</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parapet 女儿墙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retaining wall 挡土墙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demising wall 分隔墙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To centerline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acoustic wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thin+glass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demising wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retaining wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parapet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>INTERIOR_FLOOR_SLAB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOF_SLAB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALCONY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOUNDATION_SLAB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Pool floor slab</t>
-  </si>
-  <si>
-    <t>Not counted (pool)</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Transfer level, thick</t>
-  </si>
-  <si>
-    <t>Transfer+thick</t>
-  </si>
-  <si>
-    <t>Transfer slab</t>
-  </si>
-  <si>
-    <t>Counted as structural</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Exterior, grade</t>
-  </si>
-  <si>
-    <t>Exterior+grade</t>
-  </si>
-  <si>
-    <t>Not counted (exterior)</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>ROOF</t>
-  </si>
-  <si>
-    <t>Vegetated surface</t>
-  </si>
-  <si>
-    <t>Roof+green</t>
-  </si>
-  <si>
-    <t>Green roof</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Covered walkway</t>
-  </si>
-  <si>
-    <t>Covered+pedestrian</t>
-  </si>
-  <si>
-    <t>Counted if enclosed</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Canopy, no enclosure</t>
-  </si>
-  <si>
-    <t>Canopy+open</t>
-  </si>
-  <si>
-    <t>Canopy deck</t>
-  </si>
-  <si>
-    <t>Not counted (open)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>IfcWall</t>
-  </si>
-  <si>
-    <t>H&gt;6m, independent foundation</t>
-  </si>
-  <si>
-    <t>Super tall+independent</t>
-  </si>
-  <si>
-    <t>To centerline</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
-    <t>Unit separation</t>
-  </si>
-  <si>
-    <t>Between units</t>
-  </si>
-  <si>
-    <t>is_basement=T, retaining</t>
-  </si>
-  <si>
-    <t>Underground+retaining</t>
-  </si>
-  <si>
-    <t>Not counted</t>
-  </si>
-  <si>
-    <t>is_top_floor=T, low height</t>
-  </si>
-  <si>
-    <t>Roof+low</t>
-  </si>
-  <si>
-    <t>Acoustic requirement</t>
-  </si>
-  <si>
-    <t>Sound performance</t>
-  </si>
-  <si>
-    <t>IfcStair</t>
-  </si>
-  <si>
-    <t>Symmetric layout, shared shaft</t>
-  </si>
-  <si>
-    <t>Symmetric+shared</t>
-  </si>
-  <si>
-    <t>Scissor stair</t>
-  </si>
-  <si>
-    <t>Stair footprint</t>
-  </si>
-  <si>
-    <t>Super tall+narrow+stair</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Super tall+narrow+duct</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Super tall+narrow+cable</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Counted (shaft)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refuse room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assembly space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Counted full</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cold storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Counted as service</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mezzanine floor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refuge area</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smoke protection+AdjacentToStair</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patio/plaza</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parapet 女儿墙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retaining wall 挡土墙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demising wall 分隔墙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire wall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>To centerline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curtain wall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acoustic wall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thin+glass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demising wall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retaining wall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parapet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confidence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERIC_ELEMENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERIOR_WALL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTERIOR_WALL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURTAIN_WALL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHANICAL_ROOM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL_ROOM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDOOR_PARKING</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORRIDOR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -706,14 +758,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
@@ -725,8 +769,22 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,12 +806,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,25 +846,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1160,10 +1219,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
@@ -1174,11 +1233,13 @@
     <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,14 +1264,15 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18">
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="18">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1288,7 @@
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1235,15 +1297,17 @@
       <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2">
-        <v>0.8</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18">
+      <c r="I2" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1323,8 @@
       <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
+      <c r="F3" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
@@ -1268,15 +1332,17 @@
       <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3">
-        <v>0.3</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18">
+      <c r="I3" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1358,7 @@
       <c r="E4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1301,15 +1367,17 @@
       <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4">
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18">
+      <c r="I4" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1393,7 @@
       <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1334,15 +1402,17 @@
       <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5">
-        <v>0.7</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18">
+      <c r="I5" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1358,24 +1428,26 @@
       <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6">
-        <v>0.7</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18">
+      <c r="I6" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1391,24 +1463,26 @@
       <c r="E7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18">
+      <c r="I7" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1424,24 +1498,26 @@
       <c r="E8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18">
+      <c r="I8" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1457,24 +1533,26 @@
       <c r="E9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9">
-        <v>0.4</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18">
+      <c r="I9" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1490,24 +1568,26 @@
       <c r="E10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18">
+      <c r="I10" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -1523,24 +1603,26 @@
       <c r="E11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18">
+      <c r="I11" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1556,7 +1638,7 @@
       <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1565,15 +1647,17 @@
       <c r="H12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12">
-        <v>0.8</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18">
+      <c r="I12" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -1589,7 +1673,7 @@
       <c r="E13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1598,15 +1682,17 @@
       <c r="H13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13">
-        <v>0.8</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="I13" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18">
+    <row r="14" spans="1:12" ht="18">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1622,7 +1708,7 @@
       <c r="E14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1631,15 +1717,17 @@
       <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14">
-        <v>0.8</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18">
+      <c r="I14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1655,7 +1743,7 @@
       <c r="E15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -1664,15 +1752,17 @@
       <c r="H15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15">
-        <v>0.8</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18">
+      <c r="I15" s="14">
+        <v>0.62</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -1688,24 +1778,26 @@
       <c r="E16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>181</v>
+      <c r="F16" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16">
-        <v>0.8</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="I16" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18">
+    <row r="17" spans="1:16" ht="18">
       <c r="A17" s="3" t="s">
         <v>69</v>
       </c>
@@ -1721,7 +1813,7 @@
       <c r="E17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1730,15 +1822,17 @@
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17">
-        <v>0.8</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="I17" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18">
+    <row r="18" spans="1:16" ht="18">
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
@@ -1754,7 +1848,7 @@
       <c r="E18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="10" t="s">
         <v>116</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1763,15 +1857,17 @@
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18">
-        <v>0.8</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="I18" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18">
+    <row r="19" spans="1:16" ht="18">
       <c r="A19" s="3" t="s">
         <v>76</v>
       </c>
@@ -1787,7 +1883,7 @@
       <c r="E19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1796,15 +1892,17 @@
       <c r="H19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19">
-        <v>0.8</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18">
+      <c r="I19" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -1820,24 +1918,26 @@
       <c r="E20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20">
-        <v>0.8</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="I20" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18">
+    <row r="21" spans="1:16" ht="18">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -1848,29 +1948,31 @@
         <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21">
-        <v>0.8</v>
-      </c>
-      <c r="K21" s="12" t="s">
+      <c r="I21" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18">
+    <row r="22" spans="1:16" ht="18">
       <c r="A22" s="3" t="s">
         <v>87</v>
       </c>
@@ -1881,29 +1983,31 @@
         <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22">
-        <v>0.8</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="I22" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18">
+    <row r="23" spans="1:16" ht="18">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -1911,16 +2015,16 @@
         <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>92</v>
@@ -1928,15 +2032,17 @@
       <c r="H23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23">
-        <v>0.6</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="18">
+      <c r="I23" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
@@ -1947,29 +2053,31 @@
         <v>74</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24">
-        <v>0.6</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="18">
+      <c r="I24" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18">
       <c r="A25" s="3" t="s">
         <v>100</v>
       </c>
@@ -1980,29 +2088,31 @@
         <v>74</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25">
-        <v>0.6</v>
-      </c>
-      <c r="K25" s="12" t="s">
+      <c r="I25" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18">
+    <row r="26" spans="1:16" ht="18">
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
@@ -2018,7 +2128,7 @@
       <c r="E26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -2027,15 +2137,17 @@
       <c r="H26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26">
-        <v>0.7</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="I26" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18">
+    <row r="27" spans="1:16" ht="18">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2049,10 +2161,10 @@
         <v>75</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="3" t="s">
         <v>182</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>55</v>
@@ -2060,15 +2172,17 @@
       <c r="H27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27">
-        <v>0.8</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="I27" s="15">
+        <v>0.83</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18">
+    <row r="28" spans="1:16" ht="18">
       <c r="A28" s="3" t="s">
         <v>113</v>
       </c>
@@ -2084,7 +2198,7 @@
       <c r="E28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -2093,15 +2207,17 @@
       <c r="H28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28">
-        <v>0.8</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18">
+      <c r="I28" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18">
       <c r="A29" s="3" t="s">
         <v>117</v>
       </c>
@@ -2117,7 +2233,7 @@
       <c r="E29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="11" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -2126,253 +2242,272 @@
       <c r="H29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29">
-        <v>0.8</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="I29" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18">
+    <row r="30" spans="1:16" ht="18">
       <c r="A30" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30">
-        <v>0.3</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18">
+      <c r="I30" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>193</v>
+      <c r="F31" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31">
-        <v>0.3</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="18">
+      <c r="I31" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18">
       <c r="A32" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32">
-        <v>0.7</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="18">
+      <c r="I32" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>195</v>
+      <c r="F33" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33">
-        <v>0.7</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="I33" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="18">
+      <c r="P33" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18">
       <c r="A34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34">
-        <v>0.7</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="18">
+      <c r="I34" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18">
       <c r="A35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>191</v>
+      <c r="F35" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35">
-        <v>0.7</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="18">
+      <c r="I35" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36">
-        <v>0.7</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="18">
+      <c r="I36" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="44" spans="1:16" ht="18">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2392,20 +2527,14 @@
         <v>13</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44">
-        <v>0.8</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="18">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" ht="18">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -2419,26 +2548,20 @@
         <v>21</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45">
-        <v>0.8</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="18">
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" ht="18">
       <c r="A46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2452,26 +2575,20 @@
         <v>24</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46">
-        <v>0.8</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="18">
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" ht="18">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -2485,26 +2602,20 @@
         <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47">
-        <v>0.8</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="18">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" ht="18">
       <c r="A48" s="3" t="s">
         <v>26</v>
       </c>
@@ -2529,15 +2640,10 @@
       <c r="H48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48">
-        <v>0.8</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>198</v>
-      </c>
+      <c r="J48" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
